--- a/Doc/JournalDeTravial.xlsx
+++ b/Doc/JournalDeTravial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\DES_Securite\SPB_v7\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\DES_Securite\2414_SPB7_DOC\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF8AD7-E889-4047-9FD9-3E9C13D97F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AFA0D-CD16-4CC7-888F-386FDA86B4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Hrs/date</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t xml:space="preserve">présentation- changement microcontrlleur, contact sec - en gros ta rien capter personne ta aider et personne t'aidera alors bon change - ragequit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schéma voir commit altium </t>
+  </si>
+  <si>
+    <t>Assembly creation voir commit git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft voir commit git </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB  voir commit altium </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voir commit altium </t>
   </si>
 </sst>
 </file>
@@ -376,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,8 +406,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>45611</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,6 +466,289 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>45947</v>
       </c>
     </row>
   </sheetData>
